--- a/docs/wip/ICTU-Template-Plan-van-Aanpak-Voorfase-Producten.xlsx
+++ b/docs/wip/ICTU-Template-Plan-van-Aanpak-Voorfase-Producten.xlsx
@@ -49,7 +49,7 @@
     <t>De projectstartarchitectuur is een concreet en doelgericht ICT-architectuurkader waarbinnen het  project  moet worden uitgevoerd [NORA]</t>
   </si>
   <si>
-    <t>Backlog en Niet-functionele eisen</t>
+    <t>Product backlog en Niet-functionele eisen</t>
   </si>
   <si>
     <t>{verantwoordelijke}</t>
@@ -160,7 +160,7 @@
     <t>Niet-functionele eisen specificeren criteria om de kwaliteit van de software te beoordelen</t>
   </si>
   <si>
-    <t>Backlog, SAD, GFO, Kwaliteitsplan</t>
+    <t>Product backlog, SAD, GFO, Kwaliteitsplan</t>
   </si>
   <si>
     <t>Kwaliteitsplan</t>
@@ -169,7 +169,7 @@
     <t>Een kwaliteitsplan beschrijft de kwaliteitsmaatregelen die een project treft om een product te realiseren dat voldoet aan de kwaliteitseisen van de opdrachtgever en andere belanghebbenden en aan de kwaliteitsnormen van ICTU</t>
   </si>
   <si>
-    <t>Geprioriteerde backlog met user stories</t>
+    <t>Product backlog</t>
   </si>
   <si>
     <t>Een geprioriteerd overzicht van alle nog te realiseren functionele en niet-functionele eigenschappen van de software</t>

--- a/docs/wip/ICTU-Template-Plan-van-Aanpak-Voorfase-Producten.xlsx
+++ b/docs/wip/ICTU-Template-Plan-van-Aanpak-Voorfase-Producten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>Onderdeel voorfase</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>IB-plan en Niet-functionele eisen</t>
+  </si>
+  <si>
+    <t>Impact assessment mensenrechten en algoritmes (IAMA)</t>
+  </si>
+  <si>
+    <t>Een impact assessment voor mensenrechten bij de inzet van algoritmes is een instrument voor discussie en besluitvorming door overheidsorganen over de ontwikkeling en/of inzet van een algoritmisch systeem</t>
   </si>
   <si>
     <t>Globaal functioneel ontwerp (GFO)</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -674,60 +680,60 @@
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -735,22 +741,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -758,13 +764,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -781,13 +787,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -804,20 +810,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -825,22 +833,20 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -854,7 +860,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -871,13 +877,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -894,20 +900,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -920,17 +928,15 @@
       <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -938,13 +944,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -966,15 +972,17 @@
       <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -989,13 +997,13 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1003,20 +1011,20 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1024,24 +1032,45 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/wip/ICTU-Template-Plan-van-Aanpak-Voorfase-Producten.xlsx
+++ b/docs/wip/ICTU-Template-Plan-van-Aanpak-Voorfase-Producten.xlsx
@@ -70,10 +70,10 @@
     <t>IB-plan</t>
   </si>
   <si>
-    <t>Privacy impact assessment (PIA)</t>
-  </si>
-  <si>
-    <t>Een privacy impact assessment geeft bij een wet of project, waar persoonsgegevens van toepassing zijn, aan wat de gevolgen voor de privacy van de getroffen personen zijn [NORA]</t>
+    <t>Data protection impact assessment (DPIA)</t>
+  </si>
+  <si>
+    <t>Een data protection impact assessment is een instrument om vooraf de privacyrisico’s van een gegevensverwerking in kaart te brengen zodat de organisatie maatregelen kan nemen om deze risico’s te verkleinen</t>
   </si>
   <si>
     <t>IB-plan en Niet-functionele eisen</t>

--- a/docs/wip/ICTU-Template-Plan-van-Aanpak-Voorfase-Producten.xlsx
+++ b/docs/wip/ICTU-Template-Plan-van-Aanpak-Voorfase-Producten.xlsx
@@ -571,7 +571,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="50.7109375" customWidth="1"/>
+    <col min="1" max="9" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
